--- a/regulations outputs/in family connection statistics test.xlsx
+++ b/regulations outputs/in family connection statistics test.xlsx
@@ -294,136 +294,133 @@
     <t>Louvain_Communities</t>
   </si>
   <si>
-    <t>['AC-2' 'AC-3' 'AC-4' 'AC-5' 'AC-7' 'AC-9' 'AC-10' 'AC-11' 'AC-12' 'AC-14'
- 'AC-16' 'AC-17' 'AC-18' 'AC-19' 'AC-20' 'AC-22' 'AC-24' 'AU-10' 'AU-13'
- 'CA-3' 'CA-9' 'CM-14' 'IA-2' 'IA-3' 'IA-4' 'IA-5' 'IA-6' 'IA-7' 'IA-8'
- 'IA-9' 'IA-10' 'IA-11' 'IA-12' 'MA-4' 'MA-5' 'MA-7' 'MP-2' 'MP-6' 'MP-7'
- 'PE-2' 'PE-3' 'PE-4' 'PE-5' 'PE-9' 'PE-17' 'PE-22' 'PL-4' 'PM-12' 'PS-2'
- 'PS-3' 'PS-4' 'PS-5' 'PS-6' 'PS-7' 'PT-8' 'SA-21' 'SC-4' 'SC-7' 'SC-8'
- 'SC-10' 'SC-11' 'SC-12' 'SC-13' 'SC-15' 'SC-16' 'SC-17' 'SC-20' 'SC-21'
- 'SC-22' 'SC-23' 'SC-25' 'SC-26' 'SC-30' 'SC-35' 'SC-37' 'SC-41' 'SC-44'
- 'SC-45' 'SC-46' 'SC-49' 'SI-3' 'SI-14' 'SI-20' 'SI-21' 'SR-12']</t>
-  </si>
-  <si>
-    <t>['AC-21' 'AT-2' 'AT-3' 'AT-4' 'CM-13' 'CP-3' 'CP-4' 'IR-2' 'IR-3' 'IR-4'
- 'IR-6' 'IR-7' 'IR-8' 'IR-9' 'PE-10' 'PE-15' 'PM-5' 'PM-13' 'PM-14'
- 'PM-19' 'PM-20' 'PM-21' 'PM-22' 'PM-23' 'PM-24' 'PM-26' 'PM-27' 'PS-9'
- 'PT-1' 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-6' 'PT-7' 'RA-8' 'SA-16' 'SC-42'
- 'SI-18' 'SI-19']</t>
-  </si>
-  <si>
-    <t>['CP-2' 'CP-6' 'CP-7' 'CP-8' 'CP-9' 'CP-10' 'CP-11' 'CP-12' 'CP-13' 'MP-3'
- 'MP-4' 'MP-5' 'PE-11' 'PE-12' 'PE-13' 'SC-6' 'SC-24' 'SC-36' 'SC-47'
- 'SI-13' 'SI-17']</t>
-  </si>
-  <si>
-    <t>['AC-8' 'AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-6' 'AU-7' 'AU-8' 'AU-9' 'AU-11'
- 'AU-12' 'AU-14' 'AU-16' 'IR-5' 'PE-6' 'PL-9' 'SC-5' 'SC-31' 'SC-40'
- 'SC-48' 'SI-4' 'SI-8' 'SI-11' 'SI-15']</t>
+    <t>['AC-4' 'AC-7' 'AC-9' 'AC-10' 'AC-11' 'AC-12' 'AC-17' 'AC-18' 'AC-19'
+ 'AC-20' 'AC-22' 'AC-24' 'AU-9' 'AU-10' 'AU-13' 'CA-3' 'CA-9' 'CM-14'
+ 'CP-9' 'IA-3' 'IA-7' 'IA-9' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7'
+ 'PE-4' 'PE-9' 'PE-17' 'PL-4' 'SC-8' 'SC-10' 'SC-12' 'SC-13' 'SC-15'
+ 'SC-16' 'SC-17' 'SC-20' 'SC-23' 'SC-28' 'SC-41' 'SC-46' 'SC-49' 'SI-14'
+ 'SI-20' 'SI-21' 'SR-12']</t>
   </si>
   <si>
     <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CP-1' 'IA-1' 'IR-1' 'MA-1' 'MP-1'
- 'PE-1' 'PE-18' 'PE-19' 'PE-20' 'PE-21' 'PE-23' 'PL-1' 'PM-1' 'PM-2'
- 'PM-8' 'PM-9' 'PM-18' 'PM-29' 'PS-1' 'PS-8' 'RA-1' 'SA-1' 'SC-1' 'SI-1'
- 'SI-12' 'SR-1']</t>
-  </si>
-  <si>
-    <t>['AC-6' 'AC-23' 'AC-25' 'CM-12' 'PE-8' 'PL-2' 'PL-7' 'PL-8' 'PL-10'
- 'PL-11' 'PM-7' 'PM-11' 'PM-32' 'RA-2' 'RA-3' 'RA-9' 'SA-8' 'SA-17'
- 'SA-20' 'SA-23' 'SC-2' 'SC-3' 'SC-28' 'SC-32' 'SC-39' 'SC-50' 'SI-16']</t>
-  </si>
-  <si>
-    <t>['CA-2' 'CA-5' 'CA-6' 'CA-7' 'CA-8' 'CM-2' 'CM-3' 'CM-4' 'CM-5' 'CM-6'
- 'CM-7' 'CM-8' 'CM-9' 'CM-10' 'CM-11' 'MA-2' 'MA-3' 'MA-6' 'PE-14' 'PE-16'
- 'PM-3' 'PM-4' 'PM-6' 'PM-10' 'PM-15' 'PM-16' 'PM-17' 'PM-25' 'PM-28'
- 'PM-30' 'PM-31' 'RA-5' 'RA-6' 'RA-7' 'RA-10' 'SA-2' 'SA-3' 'SA-4' 'SA-5'
- 'SA-9' 'SA-10' 'SA-11' 'SA-15' 'SA-22' 'SC-18' 'SC-27' 'SC-29' 'SC-34'
- 'SC-38' 'SC-43' 'SI-2' 'SI-5' 'SI-6' 'SI-7' 'SI-10' 'SR-2' 'SR-3' 'SR-4'
- 'SR-5' 'SR-6' 'SR-7' 'SR-8' 'SR-9' 'SR-10' 'SR-11']</t>
+ 'PE-1' 'PL-1' 'PM-1' 'PM-9' 'PM-18' 'PS-1' 'PS-8' 'PT-1' 'RA-1' 'SA-1'
+ 'SC-1' 'SI-1' 'SI-12' 'SR-1']</t>
+  </si>
+  <si>
+    <t>['CA-2' 'CA-5' 'CA-6' 'CA-7' 'CM-2' 'CM-3' 'CM-4' 'CM-5' 'CM-6' 'CM-7'
+ 'CM-8' 'CM-9' 'CM-10' 'CM-11' 'IA-10' 'IR-5' 'MA-2' 'MA-3' 'PE-6' 'PE-8'
+ 'PE-14' 'PE-16' 'PL-9' 'PM-4' 'PM-6' 'PM-10' 'PM-16' 'PM-17' 'PM-28'
+ 'PM-31' 'RA-5' 'RA-6' 'RA-7' 'RA-10' 'SA-9' 'SA-22' 'SC-5' 'SC-18'
+ 'SC-26' 'SC-31' 'SC-34' 'SC-35' 'SC-38' 'SC-40' 'SC-43' 'SC-44' 'SI-2'
+ 'SI-3' 'SI-4' 'SI-5' 'SI-7' 'SI-8' 'SI-10' 'SR-2']</t>
+  </si>
+  <si>
+    <t>['AC-3' 'AC-16' 'AC-21' 'AT-2' 'AT-3' 'AT-4' 'CP-3' 'CP-4' 'IR-2' 'IR-3'
+ 'IR-4' 'IR-6' 'IR-7' 'IR-8' 'IR-9' 'PE-10' 'PE-15' 'PE-22' 'PM-2' 'PM-5'
+ 'PM-13' 'PM-14' 'PM-19' 'PM-20' 'PM-21' 'PM-22' 'PM-23' 'PM-24' 'PM-26'
+ 'PM-29' 'PS-9' 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-6' 'PT-7' 'PT-8' 'RA-8'
+ 'SA-16' 'SC-42' 'SI-18' 'SI-19']</t>
+  </si>
+  <si>
+    <t>['AC-23' 'AC-25' 'CA-8' 'CM-12' 'CM-13' 'MA-6' 'PL-2' 'PL-7' 'PL-8'
+ 'PL-10' 'PL-11' 'PM-3' 'PM-7' 'PM-11' 'PM-15' 'PM-25' 'PM-27' 'PM-30'
+ 'PM-32' 'RA-2' 'RA-3' 'RA-9' 'SA-2' 'SA-3' 'SA-4' 'SA-5' 'SA-8' 'SA-10'
+ 'SA-11' 'SA-15' 'SA-17' 'SA-20' 'SA-23' 'SC-2' 'SC-3' 'SC-4' 'SC-11'
+ 'SC-25' 'SC-27' 'SC-29' 'SC-30' 'SC-32' 'SC-36' 'SC-39' 'SC-50' 'SI-6'
+ 'SI-16' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-7' 'SR-8' 'SR-9' 'SR-10' 'SR-11']</t>
+  </si>
+  <si>
+    <t>['AC-2' 'AC-5' 'AC-6' 'AC-8' 'AC-14' 'AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-6'
+ 'AU-7' 'AU-8' 'AU-11' 'AU-12' 'AU-14' 'AU-16' 'IA-2' 'IA-4' 'IA-5' 'IA-6'
+ 'IA-8' 'IA-11' 'IA-12' 'MA-4' 'MA-5' 'MA-7' 'PE-2' 'PE-3' 'PE-5' 'PM-12'
+ 'PS-2' 'PS-3' 'PS-4' 'PS-5' 'PS-6' 'PS-7' 'SA-21' 'SC-37' 'SC-45' 'SI-11']</t>
+  </si>
+  <si>
+    <t>['CP-2' 'CP-6' 'CP-7' 'CP-8' 'CP-10' 'CP-11' 'CP-12' 'CP-13' 'PE-11'
+ 'PE-12' 'PE-13' 'PE-18' 'PE-19' 'PE-20' 'PE-21' 'PE-23' 'PM-8' 'SC-6'
+ 'SC-7' 'SC-21' 'SC-22' 'SC-24' 'SC-47' 'SC-48' 'SI-13' 'SI-15' 'SI-17']</t>
   </si>
   <si>
     <t>Fluid_Communities</t>
   </si>
   <si>
-    <t>['CM-10' 'MA-6' 'PE-16' 'PM-3' 'PM-30' 'SA-2' 'SA-3' 'SA-4' 'SA-5' 'SA-9'
- 'SA-10' 'SA-15' 'SI-6' 'SI-7' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-9' 'SR-10'
- 'SR-11']</t>
-  </si>
-  <si>
-    <t>['AC-4' 'CA-9' 'PE-4' 'PE-5' 'PE-9' 'PE-18' 'PE-19' 'PE-20' 'PE-21'
- 'PE-23' 'PM-8' 'SC-4' 'SC-7' 'SC-46' 'SC-49' 'SC-50']</t>
-  </si>
-  <si>
-    <t>['AC-8' 'AU-4' 'AU-5' 'AU-9' 'AU-11' 'AU-13' 'AU-14' 'SC-5' 'SC-6' 'SC-27'
- 'SC-29' 'SI-4' 'SI-8' 'SI-20']</t>
-  </si>
-  <si>
-    <t>['AC-20' 'AC-22' 'AT-3' 'MP-7' 'PE-10' 'PE-13' 'PE-15' 'PL-4' 'PM-13'
- 'PS-9' 'SA-16' 'SC-41']</t>
+    <t>['PL-2' 'PL-7' 'PL-8' 'PM-7' 'PM-11' 'PM-32' 'RA-2' 'RA-9' 'SA-2' 'SA-23']</t>
+  </si>
+  <si>
+    <t>['AC-2' 'AC-5' 'AC-6' 'AC-14' 'AC-17' 'AC-18' 'AU-6' 'AU-16' 'CM-10'
+ 'IA-2' 'IA-4' 'IA-5' 'IA-8' 'IA-10' 'IA-12' 'MA-3' 'MA-5' 'PL-4' 'SC-45']</t>
+  </si>
+  <si>
+    <t>['AU-13' 'CA-2' 'CA-7' 'CA-8' 'RA-5' 'RA-6' 'RA-10' 'SC-27' 'SC-29'
+ 'SC-38' 'SI-2' 'SI-5' 'SI-20']</t>
+  </si>
+  <si>
+    <t>['MA-6' 'PM-15' 'PM-25' 'PM-30' 'SA-3' 'SA-4' 'SA-5' 'SA-8' 'SA-10'
+ 'SA-11' 'SA-15' 'SI-6' 'SI-7' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-7' 'SR-9'
+ 'SR-10' 'SR-11']</t>
+  </si>
+  <si>
+    <t>['AC-4' 'AC-7' 'AC-9' 'AC-11' 'AC-19' 'CA-3' 'CA-9' 'IA-3' 'IA-9' 'IA-11']</t>
+  </si>
+  <si>
+    <t>['AC-16' 'AU-9' 'AU-10' 'CM-14' 'IA-7' 'MP-2' 'MP-4' 'PE-4' 'SC-8' 'SC-11'
+ 'SC-12' 'SC-13' 'SC-16' 'SC-17' 'SC-20' 'SC-23' 'SC-40']</t>
+  </si>
+  <si>
+    <t>['PM-1' 'PM-2' 'PM-8' 'PM-18' 'PM-19' 'PM-20' 'PM-27' 'PM-29']</t>
+  </si>
+  <si>
+    <t>['CM-2' 'CM-3' 'CM-4' 'CM-5' 'CM-6' 'CM-7' 'CM-8' 'CM-9' 'CM-11' 'CM-13'
+ 'MA-2' 'PE-16' 'PE-20' 'PM-5' 'RA-8' 'SA-22' 'SC-34']</t>
+  </si>
+  <si>
+    <t>['AC-21' 'AC-23' 'MP-6' 'PM-21' 'PM-22' 'PM-23' 'PM-24' 'PM-26' 'PT-2'
+ 'PT-3' 'PT-4' 'PT-5' 'PT-6' 'PT-7' 'SC-15' 'SC-42' 'SI-10' 'SI-18'
+ 'SI-19' 'SR-12']</t>
+  </si>
+  <si>
+    <t>['CA-5' 'CP-12' 'CP-13' 'PE-14' 'PM-3' 'PM-4' 'PM-28' 'PM-31' 'RA-7'
+ 'SC-6' 'SC-24' 'SI-13' 'SI-17' 'SR-2']</t>
+  </si>
+  <si>
+    <t>['AT-2' 'AT-4' 'CP-3' 'CP-4' 'IR-2' 'IR-3' 'IR-4' 'IR-5' 'IR-6' 'IR-7'
+ 'IR-8' 'IR-9' 'PE-6' 'PM-14' 'PM-16' 'SC-5' 'SR-8']</t>
+  </si>
+  <si>
+    <t>['CA-6' 'PE-5' 'PE-8' 'PE-18' 'PE-19' 'PE-21' 'PE-23' 'PL-10' 'PL-11'
+ 'PM-10' 'PM-17' 'RA-3' 'SA-9']</t>
+  </si>
+  <si>
+    <t>['AC-8' 'AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-7' 'AU-8' 'AU-11' 'AU-12' 'AU-14'
+ 'PE-9' 'SC-31' 'SC-48' 'SI-4' 'SI-11']</t>
   </si>
   <si>
     <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CP-1' 'IA-1' 'IR-1' 'MA-1' 'MP-1'
- 'PE-1' 'PL-1' 'PM-9' 'PS-1' 'PS-8' 'PT-1' 'SA-1' 'SC-1' 'SI-1' 'SI-12'
- 'SR-1']</t>
-  </si>
-  <si>
-    <t>['MA-3' 'MP-6' 'PM-18' 'PM-22' 'PM-24' 'PM-26' 'PT-8' 'SI-18' 'SI-19'
- 'SR-12']</t>
-  </si>
-  <si>
-    <t>['AC-2' 'AC-24' 'MA-5' 'PE-2' 'PE-3' 'PE-8' 'PM-12' 'PS-2' 'PS-3' 'PS-4'
- 'PS-5' 'PS-6' 'PS-7' 'SA-21']</t>
-  </si>
-  <si>
-    <t>['PL-2' 'PL-7' 'PL-8' 'PL-10' 'PL-11' 'PM-1' 'PM-7' 'PM-11' 'PM-32' 'RA-2'
- 'RA-3' 'RA-9' 'SA-8' 'SA-17' 'SA-20' 'SA-23' 'SR-2']</t>
-  </si>
-  <si>
-    <t>['AC-10' 'AC-17' 'AC-18' 'AC-19' 'AU-10' 'CP-9' 'IA-7' 'MP-2' 'MP-4'
- 'MP-5' 'PE-17' 'SC-8' 'SC-12' 'SC-13' 'SC-17' 'SC-20' 'SC-23' 'SC-28'
- 'SC-40']</t>
-  </si>
-  <si>
-    <t>['AC-6' 'AU-2' 'AU-3' 'AU-6' 'AU-7' 'AU-8' 'AU-12' 'CM-5' 'IR-5' 'PE-6'
- 'SC-2' 'SC-32' 'SC-45' 'SI-10']</t>
-  </si>
-  <si>
-    <t>['CM-3' 'CM-4' 'CM-9' 'CM-13' 'PM-27' 'RA-1' 'RA-8' 'SC-34' 'SI-14'
- 'SI-21']</t>
-  </si>
-  <si>
-    <t>['AC-16' 'AC-25' 'MP-3' 'PE-22' 'PT-4' 'SC-3' 'SC-11' 'SC-15' 'SC-39'
- 'SC-42' 'SI-16']</t>
-  </si>
-  <si>
-    <t>['AC-3' 'AC-21' 'AC-23' 'CA-3' 'CM-12' 'PM-2' 'PM-5' 'PM-20' 'PM-21'
- 'PT-2' 'PT-3' 'PT-5' 'PT-6' 'PT-7' 'SC-16' 'SI-15']</t>
-  </si>
-  <si>
-    <t>['CM-2' 'CM-6' 'CM-7' 'CM-8' 'CM-11' 'CM-14' 'PL-9' 'RA-5' 'SA-22' 'SC-25'
- 'SC-26' 'SC-30' 'SC-35' 'SC-44' 'SI-2' 'SI-3' 'SI-5']</t>
-  </si>
-  <si>
-    <t>['CP-2' 'CP-6' 'CP-7' 'CP-8' 'CP-10' 'CP-11' 'CP-12' 'CP-13' 'PE-11'
- 'PE-12' 'PE-14' 'SC-21' 'SC-22' 'SC-24' 'SC-36' 'SC-47' 'SI-13' 'SI-17']</t>
-  </si>
-  <si>
-    <t>['AC-5' 'AC-14' 'AU-16' 'IA-2' 'IA-3' 'IA-4' 'IA-5' 'IA-6' 'IA-8' 'IA-9'
- 'IA-10' 'IA-11' 'IA-12' 'SC-37']</t>
-  </si>
-  <si>
-    <t>['AC-12' 'MA-2' 'MA-4' 'MA-7' 'PM-19' 'PM-23' 'PM-25' 'PM-29' 'SC-10']</t>
-  </si>
-  <si>
-    <t>['AT-2' 'AT-4' 'CP-3' 'CP-4' 'IR-2' 'IR-3' 'IR-4' 'IR-6' 'IR-7' 'IR-8'
- 'IR-9' 'PM-14' 'PM-16' 'SR-8']</t>
-  </si>
-  <si>
-    <t>['AC-7' 'AC-9' 'AC-11' 'SC-18' 'SC-31' 'SC-43' 'SC-48' 'SI-11']</t>
-  </si>
-  <si>
-    <t>['CA-2' 'CA-5' 'CA-6' 'CA-7' 'CA-8' 'PM-4' 'PM-6' 'PM-10' 'PM-15' 'PM-17'
- 'PM-28' 'PM-31' 'RA-6' 'RA-7' 'RA-10' 'SA-11' 'SC-38' 'SR-7']</t>
+ 'PE-1' 'PL-1' 'PM-6' 'PM-9' 'PS-1' 'PS-8' 'PT-1' 'RA-1' 'SA-1' 'SC-1'
+ 'SI-1' 'SI-12' 'SR-1']</t>
+  </si>
+  <si>
+    <t>['AC-10' 'PL-9' 'SC-18' 'SC-25' 'SC-26' 'SC-30' 'SC-35' 'SC-44' 'SI-3'
+ 'SI-8' 'SI-15']</t>
+  </si>
+  <si>
+    <t>['AC-22' 'AT-3' 'PE-2' 'PE-3' 'PE-10' 'PE-13' 'PE-15' 'PM-12' 'PM-13'
+ 'PS-2' 'PS-3' 'PS-4' 'PS-5' 'PS-6' 'PS-7' 'PS-9' 'SA-16' 'SA-21']</t>
+  </si>
+  <si>
+    <t>['AC-12' 'MA-4' 'MA-7' 'SC-10' 'SC-37' 'SI-14' 'SI-21']</t>
+  </si>
+  <si>
+    <t>['AC-20' 'MP-7' 'SC-2' 'SC-7' 'SC-21' 'SC-22' 'SC-32' 'SC-41' 'SC-43'
+ 'SC-46' 'SC-49' 'SC-50']</t>
+  </si>
+  <si>
+    <t>['CP-2' 'CP-6' 'CP-7' 'CP-8' 'CP-9' 'CP-10' 'CP-11' 'MP-3' 'MP-5' 'PE-11'
+ 'PE-12' 'PE-17' 'SA-20' 'SC-36' 'SC-47']</t>
+  </si>
+  <si>
+    <t>['AC-3' 'AC-24' 'AC-25' 'CM-12' 'IA-6' 'PE-22' 'PT-8' 'SA-17' 'SC-3'
+ 'SC-4' 'SC-28' 'SC-39' 'SI-16']</t>
   </si>
 </sst>
 </file>
@@ -851,10 +848,10 @@
         <v>1812</v>
       </c>
       <c r="D4">
-        <v>1770</v>
+        <v>1610</v>
       </c>
       <c r="E4">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -868,10 +865,10 @@
         <v>1355</v>
       </c>
       <c r="D5">
-        <v>1397</v>
+        <v>1557</v>
       </c>
       <c r="E5">
-        <v>2043</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -885,10 +882,10 @@
         <v>1.337269372693727</v>
       </c>
       <c r="D6">
-        <v>1.267000715819613</v>
+        <v>1.034039820166988</v>
       </c>
       <c r="E6">
-        <v>0.5501713166911405</v>
+        <v>0.5577963600590261</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -902,10 +899,10 @@
         <v>1.076937228593007</v>
       </c>
       <c r="D7">
-        <v>1.17725267386469</v>
+        <v>1.044498425062888</v>
       </c>
       <c r="E7">
-        <v>0.5419083795400297</v>
+        <v>0.5534424041668532</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -919,10 +916,10 @@
         <v>0.09721030042918455</v>
       </c>
       <c r="D8">
-        <v>0.1144593895499224</v>
+        <v>0.1246708997986681</v>
       </c>
       <c r="E8">
-        <v>0.262739597942964</v>
+        <v>0.260091743119266</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -936,10 +933,10 @@
         <v>0.1882305960895143</v>
       </c>
       <c r="D9">
-        <v>0.1564022681602339</v>
+        <v>0.132417061623975</v>
       </c>
       <c r="E9">
-        <v>0.2548856174784968</v>
+        <v>0.2589416428253251</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -953,10 +950,10 @@
         <v>0.02024926773865742</v>
       </c>
       <c r="D10">
-        <v>0.01993094789704959</v>
+        <v>0.02143388122573718</v>
       </c>
       <c r="E10">
-        <v>0.02513595314845346</v>
+        <v>0.02503817922065127</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -970,10 +967,10 @@
         <v>0.01635676483684854</v>
       </c>
       <c r="D11">
-        <v>0.02009274547416878</v>
+        <v>0.02042450380466861</v>
       </c>
       <c r="E11">
-        <v>0.02453021017806517</v>
+        <v>0.02476319614491486</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -987,10 +984,10 @@
         <v>4.800682260899862</v>
       </c>
       <c r="D12">
-        <v>5.742797088284295</v>
+        <v>5.816534041859247</v>
       </c>
       <c r="E12">
-        <v>10.45274059794823</v>
+        <v>10.38780579159465</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1004,10 +1001,10 @@
         <v>11.50781330947965</v>
       </c>
       <c r="D13">
-        <v>7.784016791597971</v>
+        <v>6.483244973310303</v>
       </c>
       <c r="E13">
-        <v>10.39068216816236</v>
+        <v>10.45671331398386</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1021,10 +1018,10 @@
         <v>18.47352552181657</v>
       </c>
       <c r="D14">
-        <v>8.284217040708265</v>
+        <v>7.219833730233943</v>
       </c>
       <c r="E14">
-        <v>10.94238287456471</v>
+        <v>11.33954307876439</v>
       </c>
     </row>
   </sheetData>
@@ -2046,31 +2043,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
       </c>
       <c r="D2">
-        <v>7140</v>
+        <v>2352</v>
       </c>
       <c r="E2">
-        <v>611</v>
+        <v>234</v>
       </c>
       <c r="F2">
-        <v>0.08557422969187675</v>
+        <v>0.09948979591836735</v>
       </c>
       <c r="G2">
-        <v>17680</v>
+        <v>11956</v>
       </c>
       <c r="H2">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="I2">
-        <v>0.01900452488687783</v>
+        <v>0.02116092338574774</v>
       </c>
       <c r="J2">
-        <v>1.818452380952381</v>
+        <v>0.924901185770751</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2078,31 +2075,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
       </c>
       <c r="D3">
-        <v>1560</v>
+        <v>552</v>
       </c>
       <c r="E3">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="F3">
-        <v>0.133974358974359</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="G3">
-        <v>10120</v>
+        <v>6456</v>
       </c>
       <c r="H3">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="I3">
-        <v>0.01511857707509881</v>
+        <v>0.01006815365551425</v>
       </c>
       <c r="J3">
-        <v>1.366013071895425</v>
+        <v>1.261538461538461</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2110,31 +2107,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>78</v>
       </c>
       <c r="D4">
-        <v>420</v>
+        <v>2862</v>
       </c>
       <c r="E4">
-        <v>92</v>
+        <v>341</v>
       </c>
       <c r="F4">
-        <v>0.219047619047619</v>
+        <v>0.1191474493361286</v>
       </c>
       <c r="G4">
-        <v>5712</v>
+        <v>12906</v>
       </c>
       <c r="H4">
-        <v>97</v>
+        <v>371</v>
       </c>
       <c r="I4">
-        <v>0.01698179271708683</v>
+        <v>0.02874631954129862</v>
       </c>
       <c r="J4">
-        <v>0.9484536082474226</v>
+        <v>0.9191374663072777</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2142,31 +2139,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5">
-        <v>552</v>
+        <v>1806</v>
       </c>
       <c r="E5">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="F5">
-        <v>0.2355072463768116</v>
+        <v>0.1295681063122923</v>
       </c>
       <c r="G5">
-        <v>6456</v>
+        <v>10750</v>
       </c>
       <c r="H5">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="I5">
-        <v>0.02664188351920694</v>
+        <v>0.01953488372093023</v>
       </c>
       <c r="J5">
-        <v>0.7558139534883721</v>
+        <v>1.114285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2174,31 +2171,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6">
-        <v>930</v>
+        <v>3080</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="F6">
-        <v>0.1075268817204301</v>
+        <v>0.1055194805194805</v>
       </c>
       <c r="G6">
-        <v>8122</v>
+        <v>13272</v>
       </c>
       <c r="H6">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="I6">
-        <v>0.009480423540999754</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="J6">
-        <v>1.298701298701299</v>
+        <v>1.160714285714286</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2206,31 +2203,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
       </c>
       <c r="D7">
-        <v>702</v>
+        <v>1560</v>
       </c>
       <c r="E7">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="F7">
-        <v>0.1951566951566951</v>
+        <v>0.1935897435897436</v>
       </c>
       <c r="G7">
-        <v>7182</v>
+        <v>10120</v>
       </c>
       <c r="H7">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="I7">
-        <v>0.03007518796992481</v>
+        <v>0.02509881422924901</v>
       </c>
       <c r="J7">
-        <v>0.6342592592592593</v>
+        <v>1.188976377952756</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2238,31 +2235,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
       </c>
       <c r="D8">
-        <v>4160</v>
+        <v>702</v>
       </c>
       <c r="E8">
-        <v>491</v>
+        <v>92</v>
       </c>
       <c r="F8">
-        <v>0.1180288461538462</v>
+        <v>0.1310541310541311</v>
       </c>
       <c r="G8">
-        <v>14820</v>
+        <v>7182</v>
       </c>
       <c r="H8">
-        <v>346</v>
+        <v>124</v>
       </c>
       <c r="I8">
-        <v>0.02334682860998651</v>
+        <v>0.01726538568643832</v>
       </c>
       <c r="J8">
-        <v>1.41907514450867</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
   </sheetData>
@@ -2320,31 +2317,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
       </c>
       <c r="D2">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>0.319047619047619</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="G2">
-        <v>5712</v>
+        <v>2830</v>
       </c>
       <c r="H2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>0.03028711484593838</v>
+        <v>0.02826855123674912</v>
       </c>
       <c r="J2">
-        <v>0.7745664739884393</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2352,31 +2349,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3">
-        <v>240</v>
+        <v>342</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F3">
-        <v>0.1458333333333333</v>
+        <v>0.3450292397660819</v>
       </c>
       <c r="G3">
-        <v>4432</v>
+        <v>5206</v>
       </c>
       <c r="H3">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="I3">
-        <v>0.02459386281588448</v>
+        <v>0.04072224356511717</v>
       </c>
       <c r="J3">
-        <v>0.3211009174311927</v>
+        <v>0.5566037735849056</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2384,31 +2381,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
       </c>
       <c r="D4">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>0.2362637362637363</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="G4">
-        <v>3906</v>
+        <v>3640</v>
       </c>
       <c r="H4">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I4">
-        <v>0.02483358934971838</v>
+        <v>0.02994505494505495</v>
       </c>
       <c r="J4">
-        <v>0.4432989690721649</v>
+        <v>0.3486238532110092</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2416,31 +2413,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="F5">
-        <v>0.196969696969697</v>
+        <v>0.3547619047619048</v>
       </c>
       <c r="G5">
-        <v>3372</v>
+        <v>5712</v>
       </c>
       <c r="H5">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="I5">
-        <v>0.0195729537366548</v>
+        <v>0.03466386554621849</v>
       </c>
       <c r="J5">
-        <v>0.3939393939393939</v>
+        <v>0.7525252525252525</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2448,31 +2445,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
       </c>
       <c r="D6">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="E6">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>0.1761904761904762</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="G6">
-        <v>5712</v>
+        <v>2830</v>
       </c>
       <c r="H6">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="I6">
-        <v>0.01067927170868347</v>
+        <v>0.03286219081272085</v>
       </c>
       <c r="J6">
-        <v>1.213114754098361</v>
+        <v>0.3118279569892473</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2480,31 +2477,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F7">
-        <v>0.1888888888888889</v>
+        <v>0.2977941176470588</v>
       </c>
       <c r="G7">
-        <v>2830</v>
+        <v>4692</v>
       </c>
       <c r="H7">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="I7">
-        <v>0.01307420494699647</v>
+        <v>0.02557544757033248</v>
       </c>
       <c r="J7">
-        <v>0.4594594594594595</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2512,31 +2509,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
       </c>
       <c r="D8">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>0.4285714285714285</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="G8">
-        <v>3906</v>
+        <v>2280</v>
       </c>
       <c r="H8">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>0.02918586789554532</v>
+        <v>0.009649122807017544</v>
       </c>
       <c r="J8">
-        <v>0.6842105263157895</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2562,13 +2559,13 @@
         <v>4692</v>
       </c>
       <c r="H9">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="I9">
-        <v>0.03346121057118499</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="J9">
-        <v>0.5414012738853503</v>
+        <v>0.4619565217391304</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2576,31 +2573,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
       </c>
       <c r="D10">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="E10">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F10">
-        <v>0.3128654970760234</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="G10">
-        <v>5206</v>
+        <v>5460</v>
       </c>
       <c r="H10">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="I10">
-        <v>0.03054168267383788</v>
+        <v>0.01501831501831502</v>
       </c>
       <c r="J10">
-        <v>0.6729559748427673</v>
+        <v>0.7926829268292683</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2617,22 +2614,22 @@
         <v>182</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>0.3351648351648351</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="G11">
         <v>3906</v>
       </c>
       <c r="H11">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="I11">
-        <v>0.03993855606758832</v>
+        <v>0.02329749103942652</v>
       </c>
       <c r="J11">
-        <v>0.391025641025641</v>
+        <v>0.3296703296703297</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2640,31 +2637,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>94</v>
       </c>
       <c r="D12">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="E12">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>0.2555555555555555</v>
+        <v>0.2977941176470588</v>
       </c>
       <c r="G12">
-        <v>2830</v>
+        <v>4692</v>
       </c>
       <c r="H12">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="I12">
-        <v>0.02473498233215548</v>
+        <v>0.02195225916453538</v>
       </c>
       <c r="J12">
-        <v>0.3285714285714286</v>
+        <v>0.7864077669902912</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2672,31 +2669,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
       </c>
       <c r="D13">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F13">
-        <v>0.2454545454545455</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="G13">
-        <v>3102</v>
+        <v>3640</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I13">
-        <v>0.01611863313990974</v>
+        <v>0.02005494505494506</v>
       </c>
       <c r="J13">
-        <v>0.54</v>
+        <v>0.4246575342465753</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2704,31 +2701,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>96</v>
       </c>
       <c r="D14">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="E14">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F14">
-        <v>0.2625</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="G14">
-        <v>4432</v>
+        <v>4170</v>
       </c>
       <c r="H14">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="I14">
-        <v>0.03271660649819495</v>
+        <v>0.02805755395683453</v>
       </c>
       <c r="J14">
-        <v>0.4344827586206896</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2736,31 +2733,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
       </c>
       <c r="D15">
-        <v>272</v>
+        <v>506</v>
       </c>
       <c r="E15">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F15">
-        <v>0.2536764705882353</v>
+        <v>0.1561264822134387</v>
       </c>
       <c r="G15">
-        <v>4692</v>
+        <v>6210</v>
       </c>
       <c r="H15">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="I15">
-        <v>0.03495311167945439</v>
+        <v>0.009822866344605476</v>
       </c>
       <c r="J15">
-        <v>0.4207317073170732</v>
+        <v>1.295081967213115</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2768,31 +2765,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>98</v>
       </c>
       <c r="D16">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="E16">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F16">
-        <v>0.2189542483660131</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="G16">
-        <v>4950</v>
+        <v>3102</v>
       </c>
       <c r="H16">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I16">
-        <v>0.01454545454545455</v>
+        <v>0.01450676982591876</v>
       </c>
       <c r="J16">
-        <v>0.9305555555555556</v>
+        <v>0.6222222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2800,31 +2797,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>99</v>
       </c>
       <c r="D17">
-        <v>182</v>
+        <v>306</v>
       </c>
       <c r="E17">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F17">
-        <v>0.3461538461538461</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="G17">
-        <v>3906</v>
+        <v>4950</v>
       </c>
       <c r="H17">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I17">
-        <v>0.02534562211981567</v>
+        <v>0.02181818181818182</v>
       </c>
       <c r="J17">
-        <v>0.6363636363636364</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2832,31 +2829,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>100</v>
       </c>
       <c r="D18">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>0.1666666666666667</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="G18">
-        <v>2556</v>
+        <v>2002</v>
       </c>
       <c r="H18">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I18">
-        <v>0.02073552425665102</v>
+        <v>0.01998001998001998</v>
       </c>
       <c r="J18">
-        <v>0.2264150943396226</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2864,31 +2861,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>101</v>
       </c>
       <c r="D19">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="E19">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>0.3736263736263736</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="G19">
-        <v>3906</v>
+        <v>3372</v>
       </c>
       <c r="H19">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I19">
-        <v>0.02252944188428059</v>
+        <v>0.02461447212336892</v>
       </c>
       <c r="J19">
-        <v>0.7727272727272727</v>
+        <v>0.3132530120481928</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2896,31 +2893,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>102</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F20">
-        <v>0.1071428571428571</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="G20">
-        <v>2280</v>
+        <v>4170</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="I20">
-        <v>0.01447368421052632</v>
+        <v>0.02062350119904077</v>
       </c>
       <c r="J20">
-        <v>0.1818181818181818</v>
+        <v>0.6744186046511628</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2928,31 +2925,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
       </c>
       <c r="D21">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="E21">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F21">
-        <v>0.2156862745098039</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="G21">
-        <v>4950</v>
+        <v>3640</v>
       </c>
       <c r="H21">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I21">
-        <v>0.02828282828282828</v>
+        <v>0.03461538461538462</v>
       </c>
       <c r="J21">
-        <v>0.4714285714285714</v>
+        <v>0.3015873015873016</v>
       </c>
     </row>
   </sheetData>

--- a/regulations outputs/in family connection statistics test.xlsx
+++ b/regulations outputs/in family connection statistics test.xlsx
@@ -294,133 +294,135 @@
     <t>Louvain_Communities</t>
   </si>
   <si>
-    <t>['AC-4' 'AC-7' 'AC-9' 'AC-10' 'AC-11' 'AC-12' 'AC-17' 'AC-18' 'AC-19'
- 'AC-20' 'AC-22' 'AC-24' 'AU-9' 'AU-10' 'AU-13' 'CA-3' 'CA-9' 'CM-14'
- 'CP-9' 'IA-3' 'IA-7' 'IA-9' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7'
- 'PE-4' 'PE-9' 'PE-17' 'PL-4' 'SC-8' 'SC-10' 'SC-12' 'SC-13' 'SC-15'
- 'SC-16' 'SC-17' 'SC-20' 'SC-23' 'SC-28' 'SC-41' 'SC-46' 'SC-49' 'SI-14'
- 'SI-20' 'SI-21' 'SR-12']</t>
+    <t>['AU-13' 'CA-2' 'CA-5' 'CA-6' 'CA-7' 'CM-6' 'IA-10' 'IR-5' 'MA-2' 'MA-3'
+ 'PE-14' 'PE-16' 'PL-9' 'PM-4' 'PM-6' 'PM-10' 'PM-17' 'PM-28' 'PM-31'
+ 'RA-5' 'RA-6' 'RA-7' 'RA-10' 'SA-9' 'SC-5' 'SC-18' 'SC-31' 'SC-38'
+ 'SC-40' 'SC-43' 'SI-2' 'SI-4' 'SI-5' 'SI-6' 'SI-8' 'SI-11' 'SI-20' 'SR-2']</t>
+  </si>
+  <si>
+    <t>['AC-21' 'AT-2' 'AT-3' 'AT-4' 'CP-3' 'CP-4' 'IR-2' 'IR-3' 'IR-4' 'IR-6'
+ 'IR-7' 'IR-8' 'IR-9' 'MP-6' 'PE-10' 'PE-15' 'PM-5' 'PM-13' 'PM-14'
+ 'PM-18' 'PM-19' 'PM-20' 'PM-21' 'PM-22' 'PM-23' 'PM-24' 'PM-26' 'PS-9'
+ 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-6' 'PT-7' 'RA-8' 'SA-16' 'SI-18' 'SI-19'
+ 'SR-12']</t>
+  </si>
+  <si>
+    <t>['CA-8' 'CP-2' 'CP-8' 'CP-11' 'CP-12' 'CP-13' 'PE-11' 'PE-12' 'PE-13'
+ 'PE-18' 'PE-19' 'PE-20' 'PE-21' 'PE-23' 'PM-8' 'SC-6' 'SC-7' 'SC-20'
+ 'SC-21' 'SC-22' 'SC-24' 'SC-47' 'SC-48' 'SI-13' 'SI-15' 'SI-17']</t>
+  </si>
+  <si>
+    <t>['AC-2' 'AC-3' 'AC-4' 'AC-5' 'AC-6' 'AC-7' 'AC-8' 'AC-9' 'AC-11' 'AC-14'
+ 'AC-17' 'AC-18' 'AC-20' 'AC-22' 'AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-6' 'AU-7'
+ 'AU-8' 'AU-11' 'AU-12' 'AU-14' 'AU-16' 'CA-3' 'CA-9' 'IA-2' 'IA-3' 'IA-4'
+ 'IA-5' 'IA-6' 'IA-8' 'IA-9' 'IA-11' 'IA-12' 'MA-4' 'MA-5' 'MA-7' 'PE-2'
+ 'PE-3' 'PE-5' 'PE-6' 'PE-8' 'PE-17' 'PE-22' 'PL-4' 'PM-12' 'PS-2' 'PS-3'
+ 'PS-4' 'PS-5' 'PS-6' 'PS-7' 'PT-8' 'SA-21' 'SC-15' 'SC-37' 'SC-45'
+ 'SC-46' 'SC-49']</t>
   </si>
   <si>
     <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CP-1' 'IA-1' 'IR-1' 'MA-1' 'MP-1'
- 'PE-1' 'PL-1' 'PM-1' 'PM-9' 'PM-18' 'PS-1' 'PS-8' 'PT-1' 'RA-1' 'SA-1'
- 'SC-1' 'SI-1' 'SI-12' 'SR-1']</t>
-  </si>
-  <si>
-    <t>['CA-2' 'CA-5' 'CA-6' 'CA-7' 'CM-2' 'CM-3' 'CM-4' 'CM-5' 'CM-6' 'CM-7'
- 'CM-8' 'CM-9' 'CM-10' 'CM-11' 'IA-10' 'IR-5' 'MA-2' 'MA-3' 'PE-6' 'PE-8'
- 'PE-14' 'PE-16' 'PL-9' 'PM-4' 'PM-6' 'PM-10' 'PM-16' 'PM-17' 'PM-28'
- 'PM-31' 'RA-5' 'RA-6' 'RA-7' 'RA-10' 'SA-9' 'SA-22' 'SC-5' 'SC-18'
- 'SC-26' 'SC-31' 'SC-34' 'SC-35' 'SC-38' 'SC-40' 'SC-43' 'SC-44' 'SI-2'
- 'SI-3' 'SI-4' 'SI-5' 'SI-7' 'SI-8' 'SI-10' 'SR-2']</t>
-  </si>
-  <si>
-    <t>['AC-3' 'AC-16' 'AC-21' 'AT-2' 'AT-3' 'AT-4' 'CP-3' 'CP-4' 'IR-2' 'IR-3'
- 'IR-4' 'IR-6' 'IR-7' 'IR-8' 'IR-9' 'PE-10' 'PE-15' 'PE-22' 'PM-2' 'PM-5'
- 'PM-13' 'PM-14' 'PM-19' 'PM-20' 'PM-21' 'PM-22' 'PM-23' 'PM-24' 'PM-26'
- 'PM-29' 'PS-9' 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-6' 'PT-7' 'PT-8' 'RA-8'
- 'SA-16' 'SC-42' 'SI-18' 'SI-19']</t>
-  </si>
-  <si>
-    <t>['AC-23' 'AC-25' 'CA-8' 'CM-12' 'CM-13' 'MA-6' 'PL-2' 'PL-7' 'PL-8'
- 'PL-10' 'PL-11' 'PM-3' 'PM-7' 'PM-11' 'PM-15' 'PM-25' 'PM-27' 'PM-30'
- 'PM-32' 'RA-2' 'RA-3' 'RA-9' 'SA-2' 'SA-3' 'SA-4' 'SA-5' 'SA-8' 'SA-10'
- 'SA-11' 'SA-15' 'SA-17' 'SA-20' 'SA-23' 'SC-2' 'SC-3' 'SC-4' 'SC-11'
- 'SC-25' 'SC-27' 'SC-29' 'SC-30' 'SC-32' 'SC-36' 'SC-39' 'SC-50' 'SI-6'
- 'SI-16' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-7' 'SR-8' 'SR-9' 'SR-10' 'SR-11']</t>
-  </si>
-  <si>
-    <t>['AC-2' 'AC-5' 'AC-6' 'AC-8' 'AC-14' 'AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-6'
- 'AU-7' 'AU-8' 'AU-11' 'AU-12' 'AU-14' 'AU-16' 'IA-2' 'IA-4' 'IA-5' 'IA-6'
- 'IA-8' 'IA-11' 'IA-12' 'MA-4' 'MA-5' 'MA-7' 'PE-2' 'PE-3' 'PE-5' 'PM-12'
- 'PS-2' 'PS-3' 'PS-4' 'PS-5' 'PS-6' 'PS-7' 'SA-21' 'SC-37' 'SC-45' 'SI-11']</t>
-  </si>
-  <si>
-    <t>['CP-2' 'CP-6' 'CP-7' 'CP-8' 'CP-10' 'CP-11' 'CP-12' 'CP-13' 'PE-11'
- 'PE-12' 'PE-13' 'PE-18' 'PE-19' 'PE-20' 'PE-21' 'PE-23' 'PM-8' 'SC-6'
- 'SC-7' 'SC-21' 'SC-22' 'SC-24' 'SC-47' 'SC-48' 'SI-13' 'SI-15' 'SI-17']</t>
+ 'PE-1' 'PL-1' 'PM-2' 'PM-9' 'PM-29' 'PS-1' 'PS-8' 'PT-1' 'RA-1' 'SA-1'
+ 'SC-1' 'SC-42' 'SI-1' 'SI-12' 'SR-1']</t>
+  </si>
+  <si>
+    <t>['AC-23' 'CM-4' 'CM-7' 'CM-8' 'CM-12' 'CM-13' 'MA-6' 'PL-2' 'PL-7' 'PL-8'
+ 'PL-10' 'PL-11' 'PM-1' 'PM-3' 'PM-7' 'PM-11' 'PM-15' 'PM-16' 'PM-25'
+ 'PM-27' 'PM-30' 'PM-32' 'RA-2' 'RA-3' 'RA-9' 'SA-2' 'SA-3' 'SA-4' 'SA-5'
+ 'SA-8' 'SA-10' 'SA-11' 'SA-15' 'SA-17' 'SA-20' 'SA-22' 'SA-23' 'SC-2'
+ 'SC-3' 'SC-4' 'SC-32' 'SC-50' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-7' 'SR-8'
+ 'SR-9' 'SR-10' 'SR-11']</t>
+  </si>
+  <si>
+    <t>['AC-10' 'AC-12' 'AC-16' 'AC-19' 'AC-24' 'AC-25' 'AU-9' 'AU-10' 'CM-2'
+ 'CM-3' 'CM-5' 'CM-9' 'CM-10' 'CM-11' 'CM-14' 'CP-6' 'CP-7' 'CP-9' 'CP-10'
+ 'IA-7' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-7' 'PE-4' 'PE-9' 'SC-8' 'SC-10'
+ 'SC-11' 'SC-12' 'SC-13' 'SC-16' 'SC-17' 'SC-23' 'SC-25' 'SC-26' 'SC-27'
+ 'SC-28' 'SC-29' 'SC-30' 'SC-34' 'SC-35' 'SC-36' 'SC-39' 'SC-41' 'SC-44'
+ 'SI-3' 'SI-7' 'SI-10' 'SI-14' 'SI-16' 'SI-21']</t>
   </si>
   <si>
     <t>Fluid_Communities</t>
   </si>
   <si>
-    <t>['PL-2' 'PL-7' 'PL-8' 'PM-7' 'PM-11' 'PM-32' 'RA-2' 'RA-9' 'SA-2' 'SA-23']</t>
-  </si>
-  <si>
-    <t>['AC-2' 'AC-5' 'AC-6' 'AC-14' 'AC-17' 'AC-18' 'AU-6' 'AU-16' 'CM-10'
- 'IA-2' 'IA-4' 'IA-5' 'IA-8' 'IA-10' 'IA-12' 'MA-3' 'MA-5' 'PL-4' 'SC-45']</t>
-  </si>
-  <si>
-    <t>['AU-13' 'CA-2' 'CA-7' 'CA-8' 'RA-5' 'RA-6' 'RA-10' 'SC-27' 'SC-29'
- 'SC-38' 'SI-2' 'SI-5' 'SI-20']</t>
-  </si>
-  <si>
-    <t>['MA-6' 'PM-15' 'PM-25' 'PM-30' 'SA-3' 'SA-4' 'SA-5' 'SA-8' 'SA-10'
- 'SA-11' 'SA-15' 'SI-6' 'SI-7' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-7' 'SR-9'
- 'SR-10' 'SR-11']</t>
-  </si>
-  <si>
-    <t>['AC-4' 'AC-7' 'AC-9' 'AC-11' 'AC-19' 'CA-3' 'CA-9' 'IA-3' 'IA-9' 'IA-11']</t>
-  </si>
-  <si>
-    <t>['AC-16' 'AU-9' 'AU-10' 'CM-14' 'IA-7' 'MP-2' 'MP-4' 'PE-4' 'SC-8' 'SC-11'
- 'SC-12' 'SC-13' 'SC-16' 'SC-17' 'SC-20' 'SC-23' 'SC-40']</t>
-  </si>
-  <si>
-    <t>['PM-1' 'PM-2' 'PM-8' 'PM-18' 'PM-19' 'PM-20' 'PM-27' 'PM-29']</t>
-  </si>
-  <si>
-    <t>['CM-2' 'CM-3' 'CM-4' 'CM-5' 'CM-6' 'CM-7' 'CM-8' 'CM-9' 'CM-11' 'CM-13'
- 'MA-2' 'PE-16' 'PE-20' 'PM-5' 'RA-8' 'SA-22' 'SC-34']</t>
-  </si>
-  <si>
-    <t>['AC-21' 'AC-23' 'MP-6' 'PM-21' 'PM-22' 'PM-23' 'PM-24' 'PM-26' 'PT-2'
- 'PT-3' 'PT-4' 'PT-5' 'PT-6' 'PT-7' 'SC-15' 'SC-42' 'SI-10' 'SI-18'
- 'SI-19' 'SR-12']</t>
-  </si>
-  <si>
-    <t>['CA-5' 'CP-12' 'CP-13' 'PE-14' 'PM-3' 'PM-4' 'PM-28' 'PM-31' 'RA-7'
- 'SC-6' 'SC-24' 'SI-13' 'SI-17' 'SR-2']</t>
-  </si>
-  <si>
-    <t>['AT-2' 'AT-4' 'CP-3' 'CP-4' 'IR-2' 'IR-3' 'IR-4' 'IR-5' 'IR-6' 'IR-7'
- 'IR-8' 'IR-9' 'PE-6' 'PM-14' 'PM-16' 'SC-5' 'SR-8']</t>
-  </si>
-  <si>
-    <t>['CA-6' 'PE-5' 'PE-8' 'PE-18' 'PE-19' 'PE-21' 'PE-23' 'PL-10' 'PL-11'
- 'PM-10' 'PM-17' 'RA-3' 'SA-9']</t>
-  </si>
-  <si>
-    <t>['AC-8' 'AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-7' 'AU-8' 'AU-11' 'AU-12' 'AU-14'
- 'PE-9' 'SC-31' 'SC-48' 'SI-4' 'SI-11']</t>
+    <t>['CA-2' 'CA-8' 'CM-4' 'PM-3' 'PM-30' 'RA-5' 'RA-10' 'SA-2' 'SA-4' 'SA-5'
+ 'SA-10' 'SA-11' 'SA-15' 'SI-6' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-9' 'SR-10'
+ 'SR-11']</t>
+  </si>
+  <si>
+    <t>['PL-2' 'PL-7' 'PL-8' 'PL-10' 'PL-11' 'PM-1' 'PM-7' 'PM-11' 'PM-25'
+ 'PM-32' 'RA-2' 'RA-9' 'SA-3' 'SA-8' 'SA-17' 'SA-20' 'SA-22' 'SA-23']</t>
+  </si>
+  <si>
+    <t>['PL-1' 'PL-9' 'SC-5' 'SC-6' 'SC-38' 'SI-8' 'SR-7']</t>
+  </si>
+  <si>
+    <t>['AC-7' 'AC-9' 'AC-10' 'AC-11' 'AC-12' 'AC-17' 'AC-18' 'AC-19' 'AC-20'
+ 'CM-14' 'IA-3' 'MP-7' 'PL-4' 'SC-8' 'SC-10' 'SC-12' 'SC-13' 'SC-23'
+ 'SC-41']</t>
+  </si>
+  <si>
+    <t>['PE-18' 'PE-19' 'PE-20' 'PE-21' 'PE-23' 'PM-8' 'PM-18' 'SC-40']</t>
+  </si>
+  <si>
+    <t>['AC-2' 'AC-3' 'AC-5' 'AC-6' 'AC-14' 'AC-24' 'IA-2' 'IA-4' 'IA-5' 'IA-6'
+ 'IA-7' 'IA-8' 'IA-9' 'IA-10' 'IA-11' 'IA-12' 'MA-4' 'PT-8' 'SC-45']</t>
+  </si>
+  <si>
+    <t>['CM-3' 'CM-5' 'CM-9' 'MA-2' 'MA-3' 'MP-5' 'PE-16' 'SC-28' 'SC-34' 'SC-37'
+ 'SI-2' 'SI-3' 'SI-7' 'SI-10']</t>
+  </si>
+  <si>
+    <t>['CA-9' 'CM-2' 'CM-6' 'CM-7' 'CM-8' 'CM-10' 'CM-11' 'CP-9' 'CP-10' 'MP-4'
+ 'SC-18' 'SC-43']</t>
+  </si>
+  <si>
+    <t>['CP-2' 'CP-6' 'CP-7' 'CP-8' 'CP-11' 'CP-12' 'CP-13' 'MA-6' 'PE-11'
+ 'PE-12' 'PE-13' 'PE-17' 'SC-24' 'SC-36' 'SC-47' 'SI-13' 'SI-17']</t>
   </si>
   <si>
     <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CP-1' 'IA-1' 'IR-1' 'MA-1' 'MP-1'
- 'PE-1' 'PL-1' 'PM-6' 'PM-9' 'PS-1' 'PS-8' 'PT-1' 'RA-1' 'SA-1' 'SC-1'
- 'SI-1' 'SI-12' 'SR-1']</t>
-  </si>
-  <si>
-    <t>['AC-10' 'PL-9' 'SC-18' 'SC-25' 'SC-26' 'SC-30' 'SC-35' 'SC-44' 'SI-3'
- 'SI-8' 'SI-15']</t>
-  </si>
-  <si>
-    <t>['AC-22' 'AT-3' 'PE-2' 'PE-3' 'PE-10' 'PE-13' 'PE-15' 'PM-12' 'PM-13'
- 'PS-2' 'PS-3' 'PS-4' 'PS-5' 'PS-6' 'PS-7' 'PS-9' 'SA-16' 'SA-21']</t>
-  </si>
-  <si>
-    <t>['AC-12' 'MA-4' 'MA-7' 'SC-10' 'SC-37' 'SI-14' 'SI-21']</t>
-  </si>
-  <si>
-    <t>['AC-20' 'MP-7' 'SC-2' 'SC-7' 'SC-21' 'SC-22' 'SC-32' 'SC-41' 'SC-43'
- 'SC-46' 'SC-49' 'SC-50']</t>
-  </si>
-  <si>
-    <t>['CP-2' 'CP-6' 'CP-7' 'CP-8' 'CP-9' 'CP-10' 'CP-11' 'MP-3' 'MP-5' 'PE-11'
- 'PE-12' 'PE-17' 'SA-20' 'SC-36' 'SC-47']</t>
-  </si>
-  <si>
-    <t>['AC-3' 'AC-24' 'AC-25' 'CM-12' 'IA-6' 'PE-22' 'PT-8' 'SA-17' 'SC-3'
- 'SC-4' 'SC-28' 'SC-39' 'SI-16']</t>
+ 'PE-1' 'PM-9' 'PS-1' 'PS-8' 'PT-1' 'RA-1' 'SA-1' 'SC-1' 'SC-42' 'SI-1'
+ 'SI-12' 'SR-1']</t>
+  </si>
+  <si>
+    <t>['CA-5' 'CA-7' 'PE-14' 'PM-2' 'PM-4' 'PM-6' 'PM-10' 'PM-28' 'PM-29'
+ 'PM-31' 'RA-7']</t>
+  </si>
+  <si>
+    <t>['AC-25' 'SC-2' 'SC-3' 'SC-25' 'SC-27' 'SC-29' 'SC-30' 'SC-32' 'SC-39'
+ 'SC-44' 'SC-50' 'SI-14' 'SI-16' 'SI-21']</t>
+  </si>
+  <si>
+    <t>['AC-8' 'AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-6' 'AU-7' 'AU-8' 'AU-9' 'AU-11'
+ 'AU-12' 'AU-14' 'AU-16' 'PE-6' 'SI-4' 'SI-11']</t>
+  </si>
+  <si>
+    <t>['AC-23' 'CM-12' 'CM-13' 'MP-6' 'PM-5' 'PM-19' 'PM-20' 'PM-21' 'PM-22'
+ 'PM-23' 'PM-24' 'PM-26' 'PM-27' 'PT-2' 'PT-3' 'PT-5' 'PT-6' 'PT-7' 'RA-8'
+ 'SI-18' 'SI-19' 'SR-12']</t>
+  </si>
+  <si>
+    <t>['AC-4' 'AC-16' 'AC-21' 'AU-10' 'MP-3' 'PE-22' 'SC-4' 'SC-11' 'SC-15'
+ 'SC-16' 'SC-17' 'SC-31' 'SC-46' 'SC-49']</t>
+  </si>
+  <si>
+    <t>['MA-5' 'MP-2' 'PE-2' 'PE-3' 'PE-4' 'PE-5' 'PE-8' 'PE-9' 'PM-12' 'PS-2'
+ 'PS-3' 'PS-4' 'PS-5' 'PS-6' 'PS-7' 'SA-21']</t>
+  </si>
+  <si>
+    <t>['CA-3' 'CA-6' 'CP-4' 'IR-3' 'PM-14' 'PM-17' 'RA-3' 'SA-9' 'SR-2']</t>
+  </si>
+  <si>
+    <t>['AU-13' 'PM-15' 'RA-6' 'SC-7' 'SC-20' 'SC-21' 'SC-22' 'SC-26' 'SC-35'
+ 'SC-48' 'SI-5' 'SI-15' 'SI-20']</t>
+  </si>
+  <si>
+    <t>['IR-4' 'IR-5' 'IR-6' 'IR-7' 'IR-8' 'PM-16' 'PT-4' 'SR-8']</t>
+  </si>
+  <si>
+    <t>['AC-22' 'AT-2' 'AT-3' 'AT-4' 'CP-3' 'IR-2' 'IR-9' 'MA-7' 'PE-10' 'PE-15'
+ 'PM-13' 'PS-9' 'SA-16']</t>
   </si>
 </sst>
 </file>
@@ -848,10 +850,10 @@
         <v>1812</v>
       </c>
       <c r="D4">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="E4">
-        <v>1134</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -865,10 +867,10 @@
         <v>1355</v>
       </c>
       <c r="D5">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E5">
-        <v>2033</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -882,10 +884,10 @@
         <v>1.337269372693727</v>
       </c>
       <c r="D6">
-        <v>1.034039820166988</v>
+        <v>1.0353470437018</v>
       </c>
       <c r="E6">
-        <v>0.5577963600590261</v>
+        <v>0.5835</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -899,10 +901,10 @@
         <v>1.076937228593007</v>
       </c>
       <c r="D7">
-        <v>1.044498425062888</v>
+        <v>1.020420458304476</v>
       </c>
       <c r="E7">
-        <v>0.5534424041668532</v>
+        <v>0.595190432895729</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -916,10 +918,10 @@
         <v>0.09721030042918455</v>
       </c>
       <c r="D8">
-        <v>0.1246708997986681</v>
+        <v>0.1229395604395604</v>
       </c>
       <c r="E8">
-        <v>0.260091743119266</v>
+        <v>0.264505893019039</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -933,10 +935,10 @@
         <v>0.1882305960895143</v>
       </c>
       <c r="D9">
-        <v>0.132417061623975</v>
+        <v>0.1226795936052643</v>
       </c>
       <c r="E9">
-        <v>0.2589416428253251</v>
+        <v>0.276925044769472</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -950,10 +952,10 @@
         <v>0.02024926773865742</v>
       </c>
       <c r="D10">
-        <v>0.02143388122573718</v>
+        <v>0.02147628774913046</v>
       </c>
       <c r="E10">
-        <v>0.02503817922065127</v>
+        <v>0.02464754017549049</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -967,10 +969,10 @@
         <v>0.01635676483684854</v>
       </c>
       <c r="D11">
-        <v>0.02042450380466861</v>
+        <v>0.0204155496788305</v>
       </c>
       <c r="E11">
-        <v>0.02476319614491486</v>
+        <v>0.02473558074919345</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -984,10 +986,10 @@
         <v>4.800682260899862</v>
       </c>
       <c r="D12">
-        <v>5.816534041859247</v>
+        <v>5.724432540467244</v>
       </c>
       <c r="E12">
-        <v>10.38780579159465</v>
+        <v>10.73153309156845</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1001,10 +1003,10 @@
         <v>11.50781330947965</v>
       </c>
       <c r="D13">
-        <v>6.483244973310303</v>
+        <v>6.00912517836708</v>
       </c>
       <c r="E13">
-        <v>10.45671331398386</v>
+        <v>11.19541310055967</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1018,10 +1020,10 @@
         <v>18.47352552181657</v>
       </c>
       <c r="D14">
-        <v>7.219833730233943</v>
+        <v>6.842978450872039</v>
       </c>
       <c r="E14">
-        <v>11.33954307876439</v>
+        <v>12.50162292334912</v>
       </c>
     </row>
   </sheetData>
@@ -2043,31 +2045,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
       </c>
       <c r="D2">
-        <v>2352</v>
+        <v>1406</v>
       </c>
       <c r="E2">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="F2">
-        <v>0.09948979591836735</v>
+        <v>0.1194879089615932</v>
       </c>
       <c r="G2">
-        <v>11956</v>
+        <v>9690</v>
       </c>
       <c r="H2">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I2">
-        <v>0.02116092338574774</v>
+        <v>0.0281733746130031</v>
       </c>
       <c r="J2">
-        <v>0.924901185770751</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2075,31 +2077,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
       </c>
       <c r="D3">
-        <v>552</v>
+        <v>1482</v>
       </c>
       <c r="E3">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="F3">
-        <v>0.1485507246376812</v>
+        <v>0.1329284750337382</v>
       </c>
       <c r="G3">
-        <v>6456</v>
+        <v>9906</v>
       </c>
       <c r="H3">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="I3">
-        <v>0.01006815365551425</v>
+        <v>0.01655562285483545</v>
       </c>
       <c r="J3">
-        <v>1.261538461538461</v>
+        <v>1.201219512195122</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2107,31 +2109,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>78</v>
       </c>
       <c r="D4">
-        <v>2862</v>
+        <v>650</v>
       </c>
       <c r="E4">
-        <v>341</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>0.1191474493361286</v>
+        <v>0.1061538461538462</v>
       </c>
       <c r="G4">
-        <v>12906</v>
+        <v>6942</v>
       </c>
       <c r="H4">
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="I4">
-        <v>0.02874631954129862</v>
+        <v>0.0167098818784212</v>
       </c>
       <c r="J4">
-        <v>0.9191374663072777</v>
+        <v>0.5948275862068966</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2139,31 +2141,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5">
-        <v>1806</v>
+        <v>3660</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="F5">
-        <v>0.1295681063122923</v>
+        <v>0.1327868852459016</v>
       </c>
       <c r="G5">
-        <v>10750</v>
+        <v>14152</v>
       </c>
       <c r="H5">
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="I5">
-        <v>0.01953488372093023</v>
+        <v>0.02388355002826456</v>
       </c>
       <c r="J5">
-        <v>1.114285714285714</v>
+        <v>1.437869822485207</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2171,31 +2173,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6">
-        <v>3080</v>
+        <v>600</v>
       </c>
       <c r="E6">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="F6">
-        <v>0.1055194805194805</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="G6">
-        <v>13272</v>
+        <v>6700</v>
       </c>
       <c r="H6">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="I6">
-        <v>0.02109704641350211</v>
+        <v>0.009701492537313432</v>
       </c>
       <c r="J6">
-        <v>1.160714285714286</v>
+        <v>1.261538461538461</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2203,31 +2205,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
       </c>
       <c r="D7">
-        <v>1560</v>
+        <v>2550</v>
       </c>
       <c r="E7">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="F7">
-        <v>0.1935897435897436</v>
+        <v>0.1305882352941176</v>
       </c>
       <c r="G7">
-        <v>10120</v>
+        <v>12342</v>
       </c>
       <c r="H7">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="I7">
-        <v>0.02509881422924901</v>
+        <v>0.02406417112299465</v>
       </c>
       <c r="J7">
-        <v>1.188976377952756</v>
+        <v>1.121212121212121</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2235,31 +2237,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
       </c>
       <c r="D8">
-        <v>702</v>
+        <v>2756</v>
       </c>
       <c r="E8">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="F8">
-        <v>0.1310541310541311</v>
+        <v>0.1001451378809869</v>
       </c>
       <c r="G8">
-        <v>7182</v>
+        <v>12720</v>
       </c>
       <c r="H8">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="I8">
-        <v>0.01726538568643832</v>
+        <v>0.02382075471698113</v>
       </c>
       <c r="J8">
-        <v>0.7419354838709677</v>
+        <v>0.9108910891089109</v>
       </c>
     </row>
   </sheetData>
@@ -2317,31 +2319,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F2">
-        <v>0.3444444444444444</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="G2">
-        <v>2830</v>
+        <v>5712</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="I2">
-        <v>0.02826855123674912</v>
+        <v>0.02923669467787115</v>
       </c>
       <c r="J2">
-        <v>0.3875</v>
+        <v>0.7425149700598802</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2349,31 +2351,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="E3">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F3">
-        <v>0.3450292397660819</v>
+        <v>0.2679738562091503</v>
       </c>
       <c r="G3">
-        <v>5206</v>
+        <v>4950</v>
       </c>
       <c r="H3">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="I3">
-        <v>0.04072224356511717</v>
+        <v>0.02888888888888889</v>
       </c>
       <c r="J3">
-        <v>0.5566037735849056</v>
+        <v>0.5734265734265734</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2381,31 +2383,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
       </c>
       <c r="D4">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0.2435897435897436</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="G4">
-        <v>3640</v>
+        <v>2002</v>
       </c>
       <c r="H4">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="I4">
-        <v>0.02994505494505495</v>
+        <v>0.01148851148851149</v>
       </c>
       <c r="J4">
-        <v>0.3486238532110092</v>
+        <v>0.3478260869565217</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2413,31 +2415,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="E5">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="F5">
-        <v>0.3547619047619048</v>
+        <v>0.2543859649122807</v>
       </c>
       <c r="G5">
-        <v>5712</v>
+        <v>5206</v>
       </c>
       <c r="H5">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="I5">
-        <v>0.03466386554621849</v>
+        <v>0.02785247791010373</v>
       </c>
       <c r="J5">
-        <v>0.7525252525252525</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2445,31 +2447,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>0.3222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="G6">
-        <v>2830</v>
+        <v>2280</v>
       </c>
       <c r="H6">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I6">
-        <v>0.03286219081272085</v>
+        <v>0.01008771929824561</v>
       </c>
       <c r="J6">
-        <v>0.3118279569892473</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2477,31 +2479,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
       </c>
       <c r="D7">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="E7">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>0.2977941176470588</v>
+        <v>0.2923976608187134</v>
       </c>
       <c r="G7">
-        <v>4692</v>
+        <v>5206</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="I7">
-        <v>0.02557544757033248</v>
+        <v>0.03707260852862082</v>
       </c>
       <c r="J7">
-        <v>0.675</v>
+        <v>0.5181347150259067</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2509,31 +2511,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F8">
-        <v>0.1964285714285714</v>
+        <v>0.3901098901098901</v>
       </c>
       <c r="G8">
-        <v>2280</v>
+        <v>3906</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I8">
-        <v>0.009649122807017544</v>
+        <v>0.03891449052739376</v>
       </c>
       <c r="J8">
-        <v>0.5</v>
+        <v>0.4671052631578947</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2541,31 +2543,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
       </c>
       <c r="D9">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="E9">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F9">
-        <v>0.3125</v>
+        <v>0.3712121212121212</v>
       </c>
       <c r="G9">
-        <v>4692</v>
+        <v>3372</v>
       </c>
       <c r="H9">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="I9">
-        <v>0.0392156862745098</v>
+        <v>0.04863582443653618</v>
       </c>
       <c r="J9">
-        <v>0.4619565217391304</v>
+        <v>0.298780487804878</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2573,31 +2575,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
       </c>
       <c r="D10">
-        <v>380</v>
+        <v>272</v>
       </c>
       <c r="E10">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>0.1710526315789474</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="G10">
-        <v>5460</v>
+        <v>4692</v>
       </c>
       <c r="H10">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I10">
-        <v>0.01501831501831502</v>
+        <v>0.01427962489343564</v>
       </c>
       <c r="J10">
-        <v>0.7926829268292683</v>
+        <v>0.8955223880597015</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2605,31 +2607,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>93</v>
       </c>
       <c r="D11">
-        <v>182</v>
+        <v>462</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>0.1648351648351648</v>
+        <v>0.1645021645021645</v>
       </c>
       <c r="G11">
-        <v>3906</v>
+        <v>5962</v>
       </c>
       <c r="H11">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="I11">
-        <v>0.02329749103942652</v>
+        <v>0.01107011070110701</v>
       </c>
       <c r="J11">
-        <v>0.3296703296703297</v>
+        <v>1.151515151515152</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2637,31 +2639,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>94</v>
       </c>
       <c r="D12">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>0.2977941176470588</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G12">
-        <v>4692</v>
+        <v>3102</v>
       </c>
       <c r="H12">
         <v>103</v>
       </c>
       <c r="I12">
-        <v>0.02195225916453538</v>
+        <v>0.03320438426821406</v>
       </c>
       <c r="J12">
-        <v>0.7864077669902912</v>
+        <v>0.2912621359223301</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2669,31 +2671,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
       </c>
       <c r="D13">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>0.1987179487179487</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G13">
-        <v>3640</v>
+        <v>3906</v>
       </c>
       <c r="H13">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="I13">
-        <v>0.02005494505494506</v>
+        <v>0.01254480286738351</v>
       </c>
       <c r="J13">
-        <v>0.4246575342465753</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2701,31 +2703,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>96</v>
       </c>
       <c r="D14">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="E14">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F14">
-        <v>0.3428571428571429</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="G14">
-        <v>4170</v>
+        <v>4432</v>
       </c>
       <c r="H14">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="I14">
-        <v>0.02805755395683453</v>
+        <v>0.03452166064981949</v>
       </c>
       <c r="J14">
-        <v>0.6153846153846154</v>
+        <v>0.6928104575163399</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2733,31 +2735,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
       </c>
       <c r="D15">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="E15">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F15">
-        <v>0.1561264822134387</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="G15">
-        <v>6210</v>
+        <v>5962</v>
       </c>
       <c r="H15">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="I15">
-        <v>0.009822866344605476</v>
+        <v>0.01543106340154311</v>
       </c>
       <c r="J15">
-        <v>1.295081967213115</v>
+        <v>0.9782608695652174</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2765,31 +2767,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>98</v>
       </c>
       <c r="D16">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="E16">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>0.2545454545454545</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G16">
-        <v>3102</v>
+        <v>3906</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I16">
-        <v>0.01450676982591876</v>
+        <v>0.01817716333845366</v>
       </c>
       <c r="J16">
-        <v>0.6222222222222222</v>
+        <v>0.4929577464788732</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2797,31 +2799,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>99</v>
       </c>
       <c r="D17">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="E17">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F17">
-        <v>0.2450980392156863</v>
+        <v>0.35</v>
       </c>
       <c r="G17">
-        <v>4950</v>
+        <v>4432</v>
       </c>
       <c r="H17">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I17">
-        <v>0.02181818181818182</v>
+        <v>0.02233754512635379</v>
       </c>
       <c r="J17">
-        <v>0.6944444444444444</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2829,31 +2831,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>100</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>0.2142857142857143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2002</v>
+        <v>2556</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I18">
-        <v>0.01998001998001998</v>
+        <v>0.03794992175273865</v>
       </c>
       <c r="J18">
-        <v>0.225</v>
+        <v>0.2474226804123711</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2861,31 +2863,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>101</v>
       </c>
       <c r="D19">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="E19">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19">
-        <v>0.196969696969697</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="G19">
-        <v>3372</v>
+        <v>3640</v>
       </c>
       <c r="H19">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I19">
-        <v>0.02461447212336892</v>
+        <v>0.01868131868131868</v>
       </c>
       <c r="J19">
-        <v>0.3132530120481928</v>
+        <v>0.3382352941176471</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2893,31 +2895,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>102</v>
       </c>
       <c r="D20">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="E20">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="F20">
-        <v>0.2761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G20">
-        <v>4170</v>
+        <v>2280</v>
       </c>
       <c r="H20">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I20">
-        <v>0.02062350119904077</v>
+        <v>0.02675438596491228</v>
       </c>
       <c r="J20">
-        <v>0.6744186046511628</v>
+        <v>0.3934426229508197</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2934,22 +2936,22 @@
         <v>156</v>
       </c>
       <c r="E21">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F21">
-        <v>0.2435897435897436</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="G21">
         <v>3640</v>
       </c>
       <c r="H21">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="I21">
-        <v>0.03461538461538462</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="J21">
-        <v>0.3015873015873016</v>
+        <v>0.703125</v>
       </c>
     </row>
   </sheetData>
